--- a/database/industries/folad/fejahan/product/yearly.xlsx
+++ b/database/industries/folad/fejahan/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fejahan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA9D03-7CC6-4B2D-9A31-657CD6A03B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4DACB7-5B2E-4A6D-AC14-54F665B1E60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -572,12 +572,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -587,7 +587,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -621,7 +621,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -655,7 +655,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>272050</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -735,7 +735,7 @@
         <v>896726</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -759,7 +759,7 @@
         <v>876391</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -783,7 +783,7 @@
         <v>17294</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -829,7 +829,7 @@
         <v>260502</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -853,7 +853,7 @@
         <v>59034</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -877,7 +877,7 @@
         <v>32093</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -901,7 +901,7 @@
         <v>33609</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
@@ -923,7 +923,7 @@
         <v>2447699</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -933,7 +933,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -943,7 +943,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -953,7 +953,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
@@ -975,7 +975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -985,7 +985,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>25959</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>571507</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>15</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>234498</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>18</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>20</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>23999</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>861270</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1279,7 +1279,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1289,7 +1289,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1299,7 +1299,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1331,7 +1331,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>427856</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>23</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>74127290</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>15</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>17</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>32835186</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>18</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>206693</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>67295</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>25</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>20</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>818373</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>108482693</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1627,7 +1627,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1637,7 +1637,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1647,7 +1647,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>28</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1679,7 +1679,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>16481991</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>13</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>14</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>129704955</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>15</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>17</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>140023309</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>18</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>60102646</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>19</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>36025161</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>25</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>20</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>34100296</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1953,7 +1953,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1963,7 +1963,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1973,7 +1973,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>31</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2005,7 +2005,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>-111654</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>13</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>23</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>14</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>-62253946</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>16</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>17</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>-25998544</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>18</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>-59430</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>19</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>-59564</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>25</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>20</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>-1056931</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>21</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>-89540069</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2301,7 +2301,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2311,7 +2311,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2321,7 +2321,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>32</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2353,7 +2353,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>10</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>316202</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>13</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>23</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>14</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>11873344</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
         <v>15</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>6836642</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>18</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>147263</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
         <v>19</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>7731</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>25</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>20</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>-238558</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>21</v>
       </c>

--- a/database/industries/folad/fejahan/product/yearly.xlsx
+++ b/database/industries/folad/fejahan/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4DACB7-5B2E-4A6D-AC14-54F665B1E60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799564C7-E00F-4B95-B6A9-ADD9F1A8C17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,16 +49,19 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
     <t>تن</t>
   </si>
   <si>
+    <t>آهن اسفنجی</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>آهن اسفنجی</t>
   </si>
   <si>
     <t>شمش</t>
@@ -572,12 +572,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -587,7 +587,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -621,7 +621,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -655,7 +655,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -695,47 +695,47 @@
         <v>11</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="9">
+        <v>55925</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>272050</v>
+      </c>
+      <c r="I10" s="9">
+        <v>218665</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="F10" s="9">
-        <v>55925</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>272050</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>12</v>
+      <c r="E11" s="11">
+        <v>907778</v>
       </c>
       <c r="F11" s="11">
-        <v>907778</v>
-      </c>
-      <c r="G11" s="11">
         <v>844799</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
+      <c r="G11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="11">
+        <v>896726</v>
       </c>
       <c r="I11" s="11">
-        <v>896726</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>898103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -744,22 +744,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="9">
+        <v>348591</v>
       </c>
       <c r="G12" s="9">
-        <v>348591</v>
+        <v>850777</v>
       </c>
       <c r="H12" s="9">
-        <v>850777</v>
+        <v>876391</v>
       </c>
       <c r="I12" s="9">
-        <v>876391</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>843110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -768,44 +768,44 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H13" s="11">
+        <v>17294</v>
       </c>
       <c r="I13" s="11">
-        <v>17294</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27614</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -813,23 +813,23 @@
         <v>11</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>12</v>
+      <c r="E15" s="11">
+        <v>71216</v>
       </c>
       <c r="F15" s="11">
-        <v>71216</v>
+        <v>127712</v>
       </c>
       <c r="G15" s="11">
-        <v>127712</v>
+        <v>291007</v>
       </c>
       <c r="H15" s="11">
-        <v>291007</v>
+        <v>260502</v>
       </c>
       <c r="I15" s="11">
-        <v>260502</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>337678</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -838,22 +838,22 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H16" s="9">
+        <v>59034</v>
       </c>
       <c r="I16" s="9">
-        <v>59034</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63576</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -862,22 +862,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H17" s="11">
+        <v>32093</v>
       </c>
       <c r="I17" s="11">
-        <v>32093</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10512</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -886,44 +886,44 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H18" s="9">
+        <v>33609</v>
       </c>
       <c r="I18" s="9">
-        <v>33609</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37723</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13">
-        <v>0</v>
+        <v>1034919</v>
       </c>
       <c r="F19" s="13">
-        <v>1034919</v>
+        <v>1321102</v>
       </c>
       <c r="G19" s="13">
-        <v>1321102</v>
+        <v>1141784</v>
       </c>
       <c r="H19" s="13">
-        <v>1141784</v>
+        <v>2447699</v>
       </c>
       <c r="I19" s="13">
-        <v>2447699</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2436981</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -933,7 +933,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -943,7 +943,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -953,7 +953,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
@@ -975,7 +975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -985,7 +985,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
@@ -994,37 +994,37 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="9">
+        <v>8416</v>
+      </c>
+      <c r="G25" s="9">
+        <v>22675</v>
+      </c>
+      <c r="H25" s="9">
+        <v>25959</v>
+      </c>
+      <c r="I25" s="9">
+        <v>81235</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="9">
-        <v>8416</v>
-      </c>
-      <c r="H25" s="9">
-        <v>22675</v>
-      </c>
-      <c r="I25" s="9">
-        <v>25959</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>12</v>
+      <c r="E26" s="11">
+        <v>898527</v>
       </c>
       <c r="F26" s="11">
-        <v>898527</v>
+        <v>371111</v>
       </c>
       <c r="G26" s="11">
-        <v>371111</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -1042,22 +1042,22 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>14</v>
       </c>
@@ -1066,22 +1066,22 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F28" s="11">
+        <v>199757</v>
       </c>
       <c r="G28" s="11">
-        <v>199757</v>
+        <v>488373</v>
       </c>
       <c r="H28" s="11">
-        <v>488373</v>
+        <v>571507</v>
       </c>
       <c r="I28" s="11">
-        <v>571507</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>569844</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>15</v>
       </c>
@@ -1090,29 +1090,29 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
       </c>
       <c r="I29" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>12</v>
+      <c r="E30" s="11">
+        <v>0</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>17</v>
       </c>
@@ -1135,23 +1135,23 @@
         <v>11</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>12</v>
+      <c r="E31" s="9">
+        <v>58767</v>
       </c>
       <c r="F31" s="9">
-        <v>58767</v>
+        <v>138826</v>
       </c>
       <c r="G31" s="9">
-        <v>138826</v>
+        <v>272867</v>
       </c>
       <c r="H31" s="9">
-        <v>272867</v>
+        <v>234498</v>
       </c>
       <c r="I31" s="9">
-        <v>234498</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>322124</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>18</v>
       </c>
@@ -1160,22 +1160,22 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G32" s="11">
+        <v>823</v>
       </c>
       <c r="H32" s="11">
-        <v>823</v>
+        <v>3439</v>
       </c>
       <c r="I32" s="11">
-        <v>3439</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
@@ -1184,22 +1184,22 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F33" s="9">
+        <v>556</v>
       </c>
       <c r="G33" s="9">
-        <v>556</v>
+        <v>2944</v>
       </c>
       <c r="H33" s="9">
-        <v>2944</v>
+        <v>1868</v>
       </c>
       <c r="I33" s="9">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17766</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>25</v>
       </c>
@@ -1207,23 +1207,23 @@
         <v>11</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>12</v>
+      <c r="E34" s="11">
+        <v>55872</v>
       </c>
       <c r="F34" s="11">
-        <v>55872</v>
+        <v>72598</v>
       </c>
       <c r="G34" s="11">
-        <v>72598</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>20</v>
       </c>
@@ -1232,44 +1232,44 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H35" s="9">
+        <v>23999</v>
       </c>
       <c r="I35" s="9">
-        <v>23999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19961</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>0</v>
+        <v>1013166</v>
       </c>
       <c r="F36" s="13">
-        <v>1013166</v>
+        <v>791264</v>
       </c>
       <c r="G36" s="13">
-        <v>791264</v>
+        <v>787682</v>
       </c>
       <c r="H36" s="13">
-        <v>787682</v>
+        <v>861270</v>
       </c>
       <c r="I36" s="13">
-        <v>861270</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1015078</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1279,7 +1279,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1289,7 +1289,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1299,7 +1299,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1331,7 +1331,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>10</v>
       </c>
@@ -1340,37 +1340,37 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="9">
+        <v>7046</v>
+      </c>
+      <c r="G42" s="9">
+        <v>37487</v>
+      </c>
+      <c r="H42" s="9">
+        <v>427856</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1452581</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="9">
-        <v>7046</v>
-      </c>
-      <c r="H42" s="9">
-        <v>37487</v>
-      </c>
-      <c r="I42" s="9">
-        <v>427856</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="C43" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>12</v>
+      <c r="E43" s="11">
+        <v>13407558</v>
       </c>
       <c r="F43" s="11">
-        <v>13407558</v>
+        <v>6798054</v>
       </c>
       <c r="G43" s="11">
-        <v>6798054</v>
+        <v>0</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>23</v>
       </c>
@@ -1388,22 +1388,22 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>14</v>
       </c>
@@ -1412,22 +1412,22 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F45" s="11">
+        <v>9321664</v>
       </c>
       <c r="G45" s="11">
-        <v>9321664</v>
+        <v>42913625</v>
       </c>
       <c r="H45" s="11">
-        <v>42913625</v>
+        <v>74127290</v>
       </c>
       <c r="I45" s="11">
-        <v>74127290</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86022639</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>15</v>
       </c>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
       </c>
       <c r="I46" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
@@ -1459,14 +1459,14 @@
         <v>27</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>12</v>
+      <c r="E47" s="11">
+        <v>-9315</v>
       </c>
       <c r="F47" s="11">
-        <v>-9315</v>
+        <v>-87653</v>
       </c>
       <c r="G47" s="11">
-        <v>-87653</v>
+        <v>0</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>17</v>
       </c>
@@ -1483,23 +1483,23 @@
         <v>27</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>12</v>
+      <c r="E48" s="9">
+        <v>2000575</v>
       </c>
       <c r="F48" s="9">
-        <v>2000575</v>
+        <v>6140425</v>
       </c>
       <c r="G48" s="9">
-        <v>6140425</v>
+        <v>24378956</v>
       </c>
       <c r="H48" s="9">
-        <v>24378956</v>
+        <v>32835186</v>
       </c>
       <c r="I48" s="9">
-        <v>32835186</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51805234</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>18</v>
       </c>
@@ -1508,22 +1508,22 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G49" s="11">
+        <v>40823</v>
       </c>
       <c r="H49" s="11">
-        <v>40823</v>
+        <v>206693</v>
       </c>
       <c r="I49" s="11">
-        <v>206693</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>360428</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
@@ -1532,22 +1532,22 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F50" s="9">
+        <v>9007</v>
       </c>
       <c r="G50" s="9">
-        <v>9007</v>
+        <v>47693</v>
       </c>
       <c r="H50" s="9">
-        <v>47693</v>
+        <v>67295</v>
       </c>
       <c r="I50" s="9">
-        <v>67295</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1080376</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>25</v>
       </c>
@@ -1555,23 +1555,23 @@
         <v>27</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>12</v>
+      <c r="E51" s="11">
+        <v>105122</v>
       </c>
       <c r="F51" s="11">
-        <v>105122</v>
+        <v>291496</v>
       </c>
       <c r="G51" s="11">
-        <v>291496</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>20</v>
       </c>
@@ -1580,44 +1580,44 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H52" s="9">
+        <v>818373</v>
       </c>
       <c r="I52" s="9">
-        <v>818373</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>992143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>15503940</v>
       </c>
       <c r="F53" s="13">
-        <v>15503940</v>
+        <v>22480039</v>
       </c>
       <c r="G53" s="13">
-        <v>22480039</v>
+        <v>67418584</v>
       </c>
       <c r="H53" s="13">
-        <v>67418584</v>
+        <v>108482693</v>
       </c>
       <c r="I53" s="13">
-        <v>108482693</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>141713401</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1627,7 +1627,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1637,7 +1637,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1647,7 +1647,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>28</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1679,7 +1679,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>10</v>
       </c>
@@ -1688,37 +1688,37 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="9">
+        <v>837215</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1653230</v>
+      </c>
+      <c r="H59" s="9">
+        <v>16481991</v>
+      </c>
+      <c r="I59" s="9">
+        <v>17881221</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="9">
-        <v>837215</v>
-      </c>
-      <c r="H59" s="9">
-        <v>1653230</v>
-      </c>
-      <c r="I59" s="9">
-        <v>16481991</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>12</v>
+      <c r="E60" s="11">
+        <v>14921709</v>
       </c>
       <c r="F60" s="11">
-        <v>14921709</v>
+        <v>18318115</v>
       </c>
       <c r="G60" s="11">
-        <v>18318115</v>
+        <v>0</v>
       </c>
       <c r="H60" s="11">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>23</v>
       </c>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>14</v>
       </c>
@@ -1760,22 +1760,22 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F62" s="11">
+        <v>46665018</v>
       </c>
       <c r="G62" s="11">
-        <v>46665018</v>
+        <v>87870593</v>
       </c>
       <c r="H62" s="11">
-        <v>87870593</v>
+        <v>129704955</v>
       </c>
       <c r="I62" s="11">
-        <v>129704955</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>150958225</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>15</v>
       </c>
@@ -1784,22 +1784,22 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
       </c>
       <c r="I63" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>16</v>
       </c>
@@ -1807,8 +1807,8 @@
         <v>30</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>12</v>
+      <c r="E64" s="11">
+        <v>0</v>
       </c>
       <c r="F64" s="11">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>17</v>
       </c>
@@ -1831,23 +1831,23 @@
         <v>29</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>12</v>
+      <c r="E65" s="9">
+        <v>34042490</v>
       </c>
       <c r="F65" s="9">
-        <v>34042490</v>
+        <v>44231088</v>
       </c>
       <c r="G65" s="9">
-        <v>44231088</v>
+        <v>89343732</v>
       </c>
       <c r="H65" s="9">
-        <v>89343732</v>
+        <v>140023309</v>
       </c>
       <c r="I65" s="9">
-        <v>140023309</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>160823888</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>18</v>
       </c>
@@ -1856,22 +1856,22 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G66" s="11">
+        <v>49602673</v>
       </c>
       <c r="H66" s="11">
-        <v>49602673</v>
+        <v>60102646</v>
       </c>
       <c r="I66" s="11">
-        <v>60102646</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86891996</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>19</v>
       </c>
@@ -1880,22 +1880,22 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F67" s="9">
+        <v>16199640</v>
       </c>
       <c r="G67" s="9">
-        <v>16199640</v>
+        <v>16200068</v>
       </c>
       <c r="H67" s="9">
-        <v>16200068</v>
+        <v>36025161</v>
       </c>
       <c r="I67" s="9">
-        <v>36025161</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60811438</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>25</v>
       </c>
@@ -1903,23 +1903,23 @@
         <v>29</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>12</v>
+      <c r="E68" s="11">
+        <v>1881479</v>
       </c>
       <c r="F68" s="11">
-        <v>1881479</v>
+        <v>4015207</v>
       </c>
       <c r="G68" s="11">
-        <v>4015207</v>
-      </c>
-      <c r="H68" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>20</v>
       </c>
@@ -1928,22 +1928,22 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H69" s="9">
+        <v>34100296</v>
       </c>
       <c r="I69" s="9">
-        <v>34100296</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49704073</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1953,7 +1953,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1963,7 +1963,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1973,7 +1973,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>31</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2005,7 +2005,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -2014,37 +2014,37 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="9">
+        <v>-8</v>
+      </c>
+      <c r="G75" s="9">
+        <v>-12360</v>
+      </c>
+      <c r="H75" s="9">
+        <v>-111654</v>
+      </c>
+      <c r="I75" s="9">
+        <v>-847948</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="9">
-        <v>-8</v>
-      </c>
-      <c r="H75" s="9">
-        <v>-12360</v>
-      </c>
-      <c r="I75" s="9">
-        <v>-111654</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="C76" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>12</v>
+      <c r="E76" s="11">
+        <v>-10482718</v>
       </c>
       <c r="F76" s="11">
-        <v>-10482718</v>
+        <v>-5862255</v>
       </c>
       <c r="G76" s="11">
-        <v>-5862255</v>
+        <v>0</v>
       </c>
       <c r="H76" s="11">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>23</v>
       </c>
@@ -2062,22 +2062,22 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="9">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>14</v>
       </c>
@@ -2086,22 +2086,22 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F78" s="11">
+        <v>-6966463</v>
       </c>
       <c r="G78" s="11">
-        <v>-6966463</v>
+        <v>-27803999</v>
       </c>
       <c r="H78" s="11">
-        <v>-27803999</v>
+        <v>-62253946</v>
       </c>
       <c r="I78" s="11">
-        <v>-62253946</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-67746802</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>15</v>
       </c>
@@ -2110,22 +2110,22 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0</v>
       </c>
       <c r="I79" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>16</v>
       </c>
@@ -2133,8 +2133,8 @@
         <v>27</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>12</v>
+      <c r="E80" s="11">
+        <v>0</v>
       </c>
       <c r="F80" s="11">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>17</v>
       </c>
@@ -2157,23 +2157,23 @@
         <v>27</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>12</v>
+      <c r="E81" s="9">
+        <v>-1870035</v>
       </c>
       <c r="F81" s="9">
-        <v>-1870035</v>
+        <v>-5444712</v>
       </c>
       <c r="G81" s="9">
-        <v>-5444712</v>
+        <v>-16619160</v>
       </c>
       <c r="H81" s="9">
-        <v>-16619160</v>
+        <v>-25998544</v>
       </c>
       <c r="I81" s="9">
-        <v>-25998544</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-40988824</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>18</v>
       </c>
@@ -2182,22 +2182,22 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G82" s="11">
+        <v>-8523</v>
       </c>
       <c r="H82" s="11">
-        <v>-8523</v>
+        <v>-59430</v>
       </c>
       <c r="I82" s="11">
-        <v>-59430</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-61898</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>19</v>
       </c>
@@ -2206,22 +2206,22 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F83" s="9">
+        <v>-9007</v>
       </c>
       <c r="G83" s="9">
-        <v>-9007</v>
+        <v>-47693</v>
       </c>
       <c r="H83" s="9">
-        <v>-47693</v>
+        <v>-59564</v>
       </c>
       <c r="I83" s="9">
-        <v>-59564</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-733998</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>25</v>
       </c>
@@ -2229,23 +2229,23 @@
         <v>27</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>12</v>
+      <c r="E84" s="11">
+        <v>-189491</v>
       </c>
       <c r="F84" s="11">
-        <v>-189491</v>
+        <v>-309096</v>
       </c>
       <c r="G84" s="11">
-        <v>-309096</v>
-      </c>
-      <c r="H84" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>20</v>
       </c>
@@ -2254,44 +2254,44 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H85" s="9">
+        <v>-1056931</v>
       </c>
       <c r="I85" s="9">
-        <v>-1056931</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1249705</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>0</v>
+        <v>-12542244</v>
       </c>
       <c r="F86" s="13">
-        <v>-12542244</v>
+        <v>-18591541</v>
       </c>
       <c r="G86" s="13">
-        <v>-18591541</v>
+        <v>-44491735</v>
       </c>
       <c r="H86" s="13">
-        <v>-44491735</v>
+        <v>-89540069</v>
       </c>
       <c r="I86" s="13">
-        <v>-89540069</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-111629175</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2301,7 +2301,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2311,7 +2311,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2321,7 +2321,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>32</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2353,7 +2353,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>10</v>
       </c>
@@ -2362,37 +2362,37 @@
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="9">
+        <v>7038</v>
+      </c>
+      <c r="G92" s="9">
+        <v>25127</v>
+      </c>
+      <c r="H92" s="9">
+        <v>316202</v>
+      </c>
+      <c r="I92" s="9">
+        <v>604633</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="9">
-        <v>7038</v>
-      </c>
-      <c r="H92" s="9">
-        <v>25127</v>
-      </c>
-      <c r="I92" s="9">
-        <v>316202</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="C93" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>12</v>
+      <c r="E93" s="11">
+        <v>2924840</v>
       </c>
       <c r="F93" s="11">
-        <v>2924840</v>
+        <v>935799</v>
       </c>
       <c r="G93" s="11">
-        <v>935799</v>
+        <v>0</v>
       </c>
       <c r="H93" s="11">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>23</v>
       </c>
@@ -2410,22 +2410,22 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="9">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="G94" s="9">
+        <v>0</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>14</v>
       </c>
@@ -2434,22 +2434,22 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F95" s="11">
+        <v>2355201</v>
       </c>
       <c r="G95" s="11">
-        <v>2355201</v>
+        <v>15109626</v>
       </c>
       <c r="H95" s="11">
-        <v>15109626</v>
+        <v>11873344</v>
       </c>
       <c r="I95" s="11">
-        <v>11873344</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18275837</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>15</v>
       </c>
@@ -2458,22 +2458,22 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H96" s="9">
+        <v>0</v>
       </c>
       <c r="I96" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -2481,14 +2481,14 @@
         <v>27</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>12</v>
+      <c r="E97" s="11">
+        <v>-9315</v>
       </c>
       <c r="F97" s="11">
-        <v>-9315</v>
+        <v>-87653</v>
       </c>
       <c r="G97" s="11">
-        <v>-87653</v>
+        <v>0</v>
       </c>
       <c r="H97" s="11">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>17</v>
       </c>
@@ -2505,23 +2505,23 @@
         <v>27</v>
       </c>
       <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
-        <v>12</v>
+      <c r="E98" s="9">
+        <v>130540</v>
       </c>
       <c r="F98" s="9">
-        <v>130540</v>
+        <v>695713</v>
       </c>
       <c r="G98" s="9">
-        <v>695713</v>
+        <v>7759796</v>
       </c>
       <c r="H98" s="9">
-        <v>7759796</v>
+        <v>6836642</v>
       </c>
       <c r="I98" s="9">
-        <v>6836642</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10816410</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>18</v>
       </c>
@@ -2530,22 +2530,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G99" s="11">
+        <v>32300</v>
       </c>
       <c r="H99" s="11">
-        <v>32300</v>
+        <v>147263</v>
       </c>
       <c r="I99" s="11">
-        <v>147263</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>298530</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>19</v>
       </c>
@@ -2554,22 +2554,22 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F100" s="9">
+        <v>0</v>
       </c>
       <c r="G100" s="9">
         <v>0</v>
       </c>
       <c r="H100" s="9">
-        <v>0</v>
+        <v>7731</v>
       </c>
       <c r="I100" s="9">
-        <v>7731</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>346378</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>25</v>
       </c>
@@ -2577,23 +2577,23 @@
         <v>27</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
-        <v>12</v>
+      <c r="E101" s="11">
+        <v>-84369</v>
       </c>
       <c r="F101" s="11">
-        <v>-84369</v>
+        <v>-17600</v>
       </c>
       <c r="G101" s="11">
-        <v>-17600</v>
-      </c>
-      <c r="H101" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>20</v>
       </c>
@@ -2602,41 +2602,41 @@
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H102" s="9">
+        <v>-238558</v>
       </c>
       <c r="I102" s="9">
-        <v>-238558</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-257562</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13">
-        <v>0</v>
+        <v>2961696</v>
       </c>
       <c r="F103" s="13">
-        <v>2961696</v>
+        <v>3888498</v>
       </c>
       <c r="G103" s="13">
-        <v>3888498</v>
+        <v>22926849</v>
       </c>
       <c r="H103" s="13">
-        <v>22926849</v>
+        <v>18942624</v>
       </c>
       <c r="I103" s="13">
-        <v>18942624</v>
+        <v>30084226</v>
       </c>
     </row>
   </sheetData>
